--- a/final_work.xlsx
+++ b/final_work.xlsx
@@ -6704,6 +6704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="57.5546875" customWidth="1"/>
     <col min="6" max="6" width="53.77734375" customWidth="1"/>
     <col min="7" max="7" width="45.21875" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" customWidth="1"/>

--- a/final_work.xlsx
+++ b/final_work.xlsx
@@ -6704,6 +6704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
     <col min="5" max="5" width="57.5546875" customWidth="1"/>
     <col min="6" max="6" width="53.77734375" customWidth="1"/>
     <col min="7" max="7" width="45.21875" customWidth="1"/>
